--- a/ig/core/StructureDefinition-medcom-core-organization.xlsx
+++ b/ig/core/StructureDefinition-medcom-core-organization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$63</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="400">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.4.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T14:13:17+02:00</t>
+    <t>2025-09-24T12:42:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -378,7 +378,7 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
+    <t>The narrative text SHALL always be included when exchanging a MedCom FHIR Bundle.</t>
   </si>
   <si>
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
@@ -391,6 +391,109 @@
   </si>
   <si>
     <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Organization.text.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Organization.text.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Organization.text.status</t>
+  </si>
+  <si>
+    <t>generated | extensions | additional | empty</t>
+  </si>
+  <si>
+    <t>The status of the narrative - whether it's entirely generated (from just the defined data or the extensions too), or whether a human authored it and it may contain additional data.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of a resource narrative.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/narrative-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Narrative.status</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Organization.text.div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xhtml
+</t>
+  </si>
+  <si>
+    <t>Limited xhtml content</t>
+  </si>
+  <si>
+    <t>The actual narrative content, a stripped down version of XHTML.</t>
+  </si>
+  <si>
+    <t>The contents of the html element are an XHTML fragment containing only the basic html formatting elements described in chapters 7-11 and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained stylesheets. The XHTML content SHALL NOT contain a head, a body, external stylesheet references, scripts, forms, base/link/xlink, frames, iframes and objects.</t>
+  </si>
+  <si>
+    <t>Narrative.div</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+txt-1:The narrative SHALL contain only the basic html formatting elements and attributes described in chapters 7-11 (except section 4 of chapter 9) and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained style attributes {htmlChecks()}txt-2:The narrative SHALL have some non-whitespace content {htmlChecks()}</t>
   </si>
   <si>
     <t>Organization.contained</t>
@@ -416,34 +519,13 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Organization.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Organization.modifierExtension</t>
@@ -482,9 +564,6 @@
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t xml:space="preserve">org-1
 </t>
   </si>
@@ -514,22 +593,6 @@
     <t>GLN identifier, [DA] EAN-nummer</t>
   </si>
   <si>
-    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
     <t>Organization.identifier:SOR-ID</t>
   </si>
   <si>
@@ -571,41 +634,12 @@
     <t>Organization.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Organization.identifier:Ydernummer.extension</t>
   </si>
   <si>
     <t>Organization.identifier.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>Organization.identifier:Ydernummer.use</t>
   </si>
   <si>
@@ -622,9 +656,6 @@
   </si>
   <si>
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>Identifies the purpose for this identifier, if known .</t>
@@ -1548,7 +1579,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN59"/>
+  <dimension ref="A1:AN63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1557,17 +1588,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.6171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.63671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.09375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.09765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.00390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1576,26 +1607,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.93359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="46.55078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="60.5" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="137.703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="211.14453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="187.0625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1851,7 +1882,7 @@
         <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>76</v>
@@ -2305,7 +2336,7 @@
         <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>76</v>
@@ -2409,14 +2440,14 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>76</v>
@@ -2428,17 +2459,15 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="M8" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>127</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>76</v>
@@ -2487,13 +2516,13 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>76</v>
@@ -2505,7 +2534,7 @@
         <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>76</v>
@@ -2516,14 +2545,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2542,16 +2571,16 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2589,19 +2618,19 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2613,13 +2642,13 @@
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>76</v>
@@ -2630,46 +2659,42 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O10" t="s" s="2">
         <v>141</v>
       </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>76</v>
       </c>
@@ -2693,13 +2718,13 @@
         <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>76</v>
@@ -2717,25 +2742,25 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>76</v>
@@ -2746,10 +2771,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2760,30 +2785,30 @@
         <v>86</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>76</v>
       </c>
@@ -2819,62 +2844,62 @@
         <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AC11" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
@@ -2886,18 +2911,18 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>76</v>
       </c>
@@ -2945,7 +2970,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2954,19 +2979,19 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>76</v>
@@ -2974,46 +2999,44 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>76</v>
       </c>
@@ -3061,7 +3084,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3070,19 +3093,19 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>76</v>
@@ -3090,45 +3113,45 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O14" t="s" s="2">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -3177,7 +3200,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3186,19 +3209,19 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>76</v>
@@ -3206,23 +3229,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
@@ -3234,17 +3255,17 @@
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -3281,19 +3302,17 @@
         <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3302,32 +3321,34 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>76</v>
       </c>
@@ -3345,19 +3366,21 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
       </c>
@@ -3405,73 +3428,75 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>76</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="D17" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3507,19 +3532,19 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3528,22 +3553,22 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>76</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" hidden="true">
@@ -3551,9 +3576,11 @@
         <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="C18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3568,25 +3595,23 @@
         <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3611,13 +3636,13 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
@@ -3635,41 +3660,43 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>76</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3690,19 +3717,17 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3727,13 +3752,13 @@
         <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>207</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>76</v>
@@ -3751,39 +3776,39 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>76</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3791,7 +3816,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>86</v>
@@ -3803,35 +3828,31 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>124</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>217</v>
+        <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>76</v>
@@ -3867,7 +3888,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>126</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3879,16 +3900,16 @@
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>221</v>
+        <v>127</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>76</v>
@@ -3896,21 +3917,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
@@ -3919,19 +3940,19 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>227</v>
+        <v>133</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3945,7 +3966,7 @@
         <v>76</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>76</v>
@@ -3969,40 +3990,40 @@
         <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>229</v>
+        <v>137</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>231</v>
+        <v>127</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>76</v>
@@ -4010,10 +4031,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4030,22 +4051,26 @@
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>235</v>
+        <v>106</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
       </c>
@@ -4069,13 +4094,13 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -4093,7 +4118,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4108,13 +4133,13 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>239</v>
+        <v>146</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>76</v>
@@ -4122,10 +4147,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4148,18 +4173,20 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
       </c>
@@ -4183,13 +4210,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -4207,7 +4234,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4222,13 +4249,13 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>76</v>
@@ -4236,20 +4263,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>86</v>
@@ -4261,33 +4286,35 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>254</v>
+        <v>100</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>147</v>
+        <v>226</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>76</v>
@@ -4323,28 +4350,28 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>161</v>
+        <v>230</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>162</v>
+        <v>231</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>76</v>
@@ -4352,20 +4379,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>86</v>
@@ -4380,18 +4405,18 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4403,7 +4428,7 @@
         <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>76</v>
@@ -4439,39 +4464,39 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>151</v>
+        <v>240</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>152</v>
+        <v>241</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>153</v>
+        <v>242</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>176</v>
+        <v>244</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4491,16 +4516,16 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>177</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>178</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>179</v>
+        <v>247</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4551,7 +4576,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>180</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4563,16 +4588,16 @@
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>76</v>
@@ -4580,21 +4605,21 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>183</v>
+        <v>253</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4603,19 +4628,19 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>132</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>184</v>
+        <v>256</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4653,40 +4678,40 @@
         <v>76</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>187</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>76</v>
@@ -4694,12 +4719,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4714,25 +4741,23 @@
         <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>190</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4757,13 +4782,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4781,41 +4806,43 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>76</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4836,19 +4863,17 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4873,13 +4898,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>207</v>
+        <v>76</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4897,39 +4922,39 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>76</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4937,7 +4962,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>86</v>
@@ -4949,35 +4974,31 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>213</v>
+        <v>124</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>264</v>
+        <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>76</v>
@@ -5013,7 +5034,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>219</v>
+        <v>126</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5025,16 +5046,16 @@
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>221</v>
+        <v>127</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>76</v>
@@ -5042,21 +5063,21 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -5065,19 +5086,19 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>227</v>
+        <v>133</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5091,7 +5112,7 @@
         <v>76</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>76</v>
@@ -5103,50 +5124,52 @@
         <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="Y31" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z31" t="s" s="2">
-        <v>266</v>
+        <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>229</v>
+        <v>137</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>231</v>
+        <v>127</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>76</v>
@@ -5154,10 +5177,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5174,22 +5197,26 @@
         <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>235</v>
+        <v>106</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5213,13 +5240,13 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
@@ -5237,7 +5264,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5252,13 +5279,13 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>239</v>
+        <v>146</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>76</v>
@@ -5266,10 +5293,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5292,18 +5319,20 @@
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5327,13 +5356,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5351,7 +5380,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5366,13 +5395,13 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>76</v>
@@ -5380,20 +5409,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>86</v>
@@ -5408,30 +5435,32 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>147</v>
+        <v>226</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>76</v>
+        <v>274</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>76</v>
@@ -5467,39 +5496,39 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>151</v>
+        <v>230</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>176</v>
+        <v>234</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5507,7 +5536,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>86</v>
@@ -5519,18 +5548,20 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5543,7 +5574,7 @@
         <v>76</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>76</v>
@@ -5555,13 +5586,11 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5579,7 +5608,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5591,16 +5620,16 @@
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>76</v>
@@ -5608,21 +5637,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5631,20 +5660,18 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>132</v>
+        <v>245</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>133</v>
+        <v>246</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5681,40 +5708,40 @@
         <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>76</v>
@@ -5722,10 +5749,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>189</v>
+        <v>253</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5742,26 +5769,24 @@
         <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>106</v>
+        <v>254</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5785,13 +5810,13 @@
         <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>76</v>
@@ -5809,7 +5834,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>197</v>
+        <v>258</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5824,13 +5849,13 @@
         <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>129</v>
+        <v>259</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>76</v>
@@ -5838,12 +5863,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5864,19 +5891,17 @@
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>202</v>
+        <v>281</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -5901,13 +5926,13 @@
         <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>207</v>
+        <v>76</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>76</v>
@@ -5925,39 +5950,39 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>76</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5965,7 +5990,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>86</v>
@@ -5977,35 +6002,31 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>213</v>
+        <v>124</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>76</v>
@@ -6041,7 +6062,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>219</v>
+        <v>126</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6053,16 +6074,16 @@
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>221</v>
+        <v>127</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>76</v>
@@ -6070,21 +6091,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -6093,19 +6114,19 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>227</v>
+        <v>133</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6119,7 +6140,7 @@
         <v>76</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>76</v>
@@ -6143,40 +6164,40 @@
         <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>229</v>
+        <v>137</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>231</v>
+        <v>127</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>76</v>
@@ -6184,10 +6205,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6204,22 +6225,26 @@
         <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>235</v>
+        <v>106</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6243,13 +6268,13 @@
         <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>76</v>
@@ -6267,7 +6292,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6282,13 +6307,13 @@
         <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>239</v>
+        <v>146</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>76</v>
@@ -6296,10 +6321,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6322,18 +6347,20 @@
         <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6357,13 +6384,13 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6381,7 +6408,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6396,13 +6423,13 @@
         <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>76</v>
@@ -6410,20 +6437,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>86</v>
@@ -6435,33 +6460,35 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>283</v>
+        <v>100</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>284</v>
+        <v>223</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>147</v>
+        <v>226</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>76</v>
@@ -6497,28 +6524,28 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>161</v>
+        <v>230</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>162</v>
+        <v>231</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>76</v>
@@ -6526,10 +6553,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6537,7 +6564,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>86</v>
@@ -6546,32 +6573,28 @@
         <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>286</v>
+        <v>123</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>287</v>
+        <v>235</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q44" t="s" s="2">
-        <v>291</v>
-      </c>
+      <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6579,7 +6602,7 @@
         <v>76</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>76</v>
@@ -6615,7 +6638,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6630,24 +6653,24 @@
         <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>292</v>
+        <v>240</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>293</v>
+        <v>241</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>294</v>
+        <v>242</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>295</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6658,7 +6681,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -6670,20 +6693,16 @@
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>297</v>
+        <v>246</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>76</v>
       </c>
@@ -6707,11 +6726,13 @@
         <v>76</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Y45" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z45" t="s" s="2">
-        <v>301</v>
+        <v>76</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>76</v>
@@ -6729,13 +6750,13 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>76</v>
@@ -6744,24 +6765,24 @@
         <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>181</v>
+        <v>251</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>305</v>
+        <v>253</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6775,7 +6796,7 @@
         <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>76</v>
@@ -6784,20 +6805,18 @@
         <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>307</v>
+        <v>256</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>76</v>
       </c>
@@ -6845,7 +6864,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6854,19 +6873,19 @@
         <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>311</v>
+        <v>260</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>312</v>
+        <v>261</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>76</v>
@@ -6874,12 +6893,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>76</v>
       </c>
@@ -6888,7 +6909,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -6897,22 +6918,20 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>177</v>
+        <v>293</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>317</v>
+        <v>173</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -6961,7 +6980,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>313</v>
+        <v>169</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6970,30 +6989,30 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>311</v>
+        <v>177</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>76</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7004,36 +7023,38 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="R48" t="s" s="2">
         <v>76</v>
       </c>
@@ -7077,39 +7098,39 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>325</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7129,22 +7150,22 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>330</v>
+        <v>211</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -7169,13 +7190,11 @@
         <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>76</v>
+        <v>311</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
@@ -7193,7 +7212,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7202,30 +7221,30 @@
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>335</v>
+        <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>336</v>
+        <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>339</v>
+        <v>127</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>76</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7239,7 +7258,7 @@
         <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>76</v>
@@ -7248,17 +7267,19 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>244</v>
+        <v>123</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O50" t="s" s="2">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7307,7 +7328,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7316,19 +7337,19 @@
         <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>181</v>
+        <v>322</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>76</v>
@@ -7336,10 +7357,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7362,19 +7383,19 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>346</v>
+        <v>123</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7423,7 +7444,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7441,7 +7462,7 @@
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -7452,10 +7473,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7466,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
@@ -7478,16 +7499,20 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>177</v>
+        <v>329</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>178</v>
+        <v>330</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7535,28 +7560,28 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>180</v>
+        <v>328</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>76</v>
+        <v>334</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>76</v>
+        <v>335</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>76</v>
+        <v>336</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>76</v>
+        <v>338</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>76</v>
@@ -7564,14 +7589,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7590,18 +7615,20 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>132</v>
+        <v>340</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>133</v>
+        <v>341</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>184</v>
+        <v>342</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7649,7 +7676,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>187</v>
+        <v>339</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7658,19 +7685,19 @@
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>76</v>
+        <v>345</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>137</v>
+        <v>346</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>76</v>
+        <v>347</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>181</v>
+        <v>348</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>76</v>
@@ -7678,45 +7705,43 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>355</v>
+        <v>76</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>132</v>
+        <v>254</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>141</v>
+        <v>353</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -7765,28 +7790,28 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>129</v>
+        <v>354</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>76</v>
@@ -7794,10 +7819,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7808,7 +7833,7 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -7820,17 +7845,19 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>201</v>
+        <v>356</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>76</v>
@@ -7855,13 +7882,13 @@
         <v>76</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>363</v>
+        <v>76</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>364</v>
+        <v>76</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>76</v>
@@ -7879,13 +7906,13 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
@@ -7897,7 +7924,7 @@
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -7908,10 +7935,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7934,18 +7961,16 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>367</v>
+        <v>123</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>368</v>
+        <v>124</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>369</v>
+        <v>125</v>
       </c>
       <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>370</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>76</v>
       </c>
@@ -7993,7 +8018,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>366</v>
+        <v>126</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8005,13 +8030,13 @@
         <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>371</v>
+        <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>372</v>
+        <v>127</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -8022,14 +8047,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8048,18 +8073,18 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>319</v>
+        <v>130</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>374</v>
+        <v>131</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>76</v>
       </c>
@@ -8107,7 +8132,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>373</v>
+        <v>137</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8119,13 +8144,13 @@
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>377</v>
+        <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>378</v>
+        <v>127</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -8136,43 +8161,45 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>76</v>
+        <v>365</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O58" t="s" s="2">
-        <v>382</v>
+        <v>167</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>76</v>
@@ -8221,25 +8248,25 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>383</v>
+        <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>384</v>
+        <v>146</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8250,10 +8277,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8264,7 +8291,7 @@
         <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>76</v>
@@ -8276,17 +8303,17 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>386</v>
+        <v>211</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>76</v>
@@ -8311,13 +8338,13 @@
         <v>76</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>76</v>
+        <v>373</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>76</v>
+        <v>374</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>76</v>
@@ -8335,13 +8362,13 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>76</v>
@@ -8353,17 +8380,473 @@
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>181</v>
+        <v>375</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN59" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN59">
+  <autoFilter ref="A1:AN63">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8373,7 +8856,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI58">
+  <conditionalFormatting sqref="A2:AI62">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/core/StructureDefinition-medcom-core-organization.xlsx
+++ b/ig/core/StructureDefinition-medcom-core-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T12:42:36+00:00</t>
+    <t>2025-10-29T07:28:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/core/StructureDefinition-medcom-core-organization.xlsx
+++ b/ig/core/StructureDefinition-medcom-core-organization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$71</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="411">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T07:28:01+00:00</t>
+    <t>2026-01-13T14:04:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -361,7 +361,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -606,6 +606,217 @@
     <t>Sundhedsvæsenets Organisationsregister (SOR) identifier</t>
   </si>
   <si>
+    <t>Organization.identifier:SOR-ID.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier:SOR-ID.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier:SOR-ID.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>official</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Organization.identifier:SOR-ID.type</t>
+  </si>
+  <si>
+    <t>Organization.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Organization.identifier:SOR-ID.system</t>
+  </si>
+  <si>
+    <t>Organization.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.208.176.1.1</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>./IdentifierType</t>
+  </si>
+  <si>
+    <t>Organization.identifier:SOR-ID.value</t>
+  </si>
+  <si>
+    <t>Organization.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+min-digits-sor:SOR Identifiers are at minimum 11 digits long. See https://sundhedsdatastyrelsen.dk/da/rammer-og-retningslinjer/organisationsregistrering {matches('^([0-9]){11,}$')}</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>Organization.identifier:SOR-ID.period</t>
+  </si>
+  <si>
+    <t>Organization.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
+    <t>Organization.identifier:SOR-ID.assigner</t>
+  </si>
+  <si>
+    <t>Organization.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>./IdentifierIssuingAuthority</t>
+  </si>
+  <si>
     <t>Organization.identifier:KOMBIT-ORG-ID</t>
   </si>
   <si>
@@ -631,205 +842,28 @@
     <t>Organization.identifier:Ydernummer.id</t>
   </si>
   <si>
-    <t>Organization.identifier.id</t>
-  </si>
-  <si>
     <t>Organization.identifier:Ydernummer.extension</t>
   </si>
   <si>
-    <t>Organization.identifier.extension</t>
-  </si>
-  <si>
     <t>Organization.identifier:Ydernummer.use</t>
   </si>
   <si>
-    <t>Organization.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
     <t>Organization.identifier:Ydernummer.type</t>
   </si>
   <si>
-    <t>Organization.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
     <t>Organization.identifier:Ydernummer.system</t>
   </si>
   <si>
-    <t>Organization.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
     <t>urn:oid:1.2.208.176.1.4</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>./IdentifierType</t>
-  </si>
-  <si>
     <t>Organization.identifier:Ydernummer.value</t>
   </si>
   <si>
-    <t>Organization.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>./Value</t>
-  </si>
-  <si>
     <t>Organization.identifier:Ydernummer.period</t>
   </si>
   <si>
-    <t>Organization.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
     <t>Organization.identifier:Ydernummer.assigner</t>
-  </si>
-  <si>
-    <t>Organization.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
     <t>Organization.identifier:CVR-ID</t>
@@ -1184,7 +1218,7 @@
     <t>The purpose for which you would contact a contact party.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type|4.0.1</t>
   </si>
   <si>
     <t>./type</t>
@@ -1251,7 +1285,7 @@
     <t>Organization.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|4.0.1)
 </t>
   </si>
   <si>
@@ -1579,7 +1613,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN63"/>
+  <dimension ref="A1:AN71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1876,7 +1910,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>86</v>
@@ -2330,7 +2364,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>86</v>
@@ -3576,11 +3610,9 @@
         <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="C18" t="s" s="2">
         <v>189</v>
       </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3598,21 +3630,19 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>190</v>
+        <v>123</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3660,52 +3690,50 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>179</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -3714,21 +3742,21 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3764,19 +3792,19 @@
         <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3785,30 +3813,30 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>179</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3825,28 +3853,32 @@
         <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>76</v>
@@ -3864,13 +3896,13 @@
         <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>76</v>
@@ -3888,7 +3920,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3900,13 +3932,13 @@
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -3917,21 +3949,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
@@ -3940,21 +3972,23 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3978,49 +4012,49 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -4031,10 +4065,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4042,47 +4076,47 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>76</v>
@@ -4094,13 +4128,13 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -4118,7 +4152,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4133,13 +4167,13 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>76</v>
@@ -4147,10 +4181,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4158,13 +4192,13 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>76</v>
@@ -4173,20 +4207,18 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>211</v>
+        <v>123</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
       </c>
@@ -4198,7 +4230,7 @@
         <v>76</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>76</v>
@@ -4210,13 +4242,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>217</v>
+        <v>76</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -4234,7 +4266,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4246,16 +4278,16 @@
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>234</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>76</v>
@@ -4263,10 +4295,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4274,7 +4306,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>86</v>
@@ -4289,32 +4321,28 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>227</v>
+        <v>76</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>76</v>
@@ -4350,7 +4378,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4365,13 +4393,13 @@
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>76</v>
@@ -4379,10 +4407,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4390,7 +4418,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>86</v>
@@ -4405,16 +4433,16 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>123</v>
+        <v>249</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4428,7 +4456,7 @@
         <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>76</v>
@@ -4464,7 +4492,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4479,13 +4507,13 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>76</v>
@@ -4493,12 +4521,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4519,16 +4549,18 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>247</v>
+        <v>172</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4576,41 +4608,43 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>248</v>
+        <v>169</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>249</v>
+        <v>176</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>251</v>
+        <v>178</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>76</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4631,18 +4665,18 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4690,43 +4724,41 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>259</v>
+        <v>176</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>260</v>
+        <v>177</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>261</v>
+        <v>178</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>76</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4744,21 +4776,19 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>123</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>124</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4806,52 +4836,50 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>179</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4860,21 +4888,21 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>268</v>
+        <v>131</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4910,19 +4938,19 @@
         <v>76</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4931,30 +4959,30 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>179</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4971,22 +4999,26 @@
         <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
@@ -5010,13 +5042,13 @@
         <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>76</v>
@@ -5034,7 +5066,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5046,13 +5078,13 @@
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -5063,21 +5095,21 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -5086,21 +5118,23 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5124,49 +5158,49 @@
         <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -5177,10 +5211,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5188,7 +5222,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>86</v>
@@ -5197,38 +5231,38 @@
         <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>76</v>
@@ -5240,13 +5274,13 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
@@ -5264,7 +5298,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5279,13 +5313,13 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>76</v>
@@ -5293,10 +5327,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5304,7 +5338,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>86</v>
@@ -5319,20 +5353,18 @@
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>211</v>
+        <v>123</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5344,7 +5376,7 @@
         <v>76</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>76</v>
@@ -5356,13 +5388,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>217</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5380,7 +5412,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5395,13 +5427,13 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>76</v>
@@ -5409,10 +5441,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5420,7 +5452,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>86</v>
@@ -5435,32 +5467,28 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>76</v>
@@ -5496,7 +5524,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5511,13 +5539,13 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>76</v>
@@ -5525,10 +5553,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5536,7 +5564,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>86</v>
@@ -5551,16 +5579,16 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>123</v>
+        <v>249</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5574,7 +5602,7 @@
         <v>76</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>76</v>
@@ -5586,11 +5614,13 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="Y35" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z35" t="s" s="2">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5608,7 +5638,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5623,13 +5653,13 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>76</v>
@@ -5637,12 +5667,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="D36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5663,16 +5695,18 @@
         <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>247</v>
+        <v>172</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5720,41 +5754,43 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>248</v>
+        <v>169</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>249</v>
+        <v>176</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>251</v>
+        <v>178</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>76</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="C37" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="B37" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5775,18 +5811,18 @@
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5834,43 +5870,41 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>259</v>
+        <v>176</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>260</v>
+        <v>177</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>261</v>
+        <v>178</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>76</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5888,21 +5922,19 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>281</v>
+        <v>124</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5950,50 +5982,50 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>179</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -6005,15 +6037,17 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -6050,31 +6084,31 @@
         <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
@@ -6091,44 +6125,46 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6152,49 +6188,49 @@
         <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6205,10 +6241,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6225,25 +6261,25 @@
         <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6268,13 +6304,13 @@
         <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>142</v>
+        <v>210</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>76</v>
@@ -6292,7 +6328,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6307,10 +6343,10 @@
         <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6321,10 +6357,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6332,7 +6368,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>86</v>
@@ -6347,32 +6383,32 @@
         <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>76</v>
+        <v>285</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>76</v>
@@ -6384,13 +6420,13 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>217</v>
+        <v>76</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6408,7 +6444,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6423,13 +6459,13 @@
         <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>76</v>
@@ -6440,7 +6476,7 @@
         <v>286</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6463,51 +6499,47 @@
         <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="Y43" s="2"/>
+      <c r="Z43" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="S43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6524,7 +6556,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6539,13 +6571,13 @@
         <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>76</v>
@@ -6556,7 +6588,7 @@
         <v>288</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6564,7 +6596,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>86</v>
@@ -6579,17 +6611,15 @@
         <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>123</v>
+        <v>240</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6602,7 +6632,7 @@
         <v>76</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>76</v>
@@ -6638,7 +6668,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6653,13 +6683,13 @@
         <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>76</v>
@@ -6670,7 +6700,7 @@
         <v>289</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6693,15 +6723,17 @@
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -6750,7 +6782,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6765,13 +6797,13 @@
         <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>76</v>
@@ -6782,9 +6814,11 @@
         <v>290</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>76</v>
       </c>
@@ -6805,18 +6839,18 @@
         <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>76</v>
       </c>
@@ -6864,43 +6898,41 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>259</v>
+        <v>176</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>260</v>
+        <v>177</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>261</v>
+        <v>178</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>76</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>76</v>
       </c>
@@ -6918,21 +6950,19 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>293</v>
+        <v>123</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>294</v>
+        <v>124</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>76</v>
       </c>
@@ -6980,81 +7010,77 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>179</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>295</v>
+        <v>191</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>296</v>
+        <v>130</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>297</v>
+        <v>131</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>298</v>
+        <v>132</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q48" t="s" s="2">
-        <v>301</v>
-      </c>
+      <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
         <v>76</v>
       </c>
@@ -7086,51 +7112,51 @@
         <v>76</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>295</v>
+        <v>137</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>302</v>
+        <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>303</v>
+        <v>127</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>305</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>306</v>
+        <v>193</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7141,31 +7167,31 @@
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>307</v>
+        <v>194</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>308</v>
+        <v>195</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>309</v>
+        <v>196</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>310</v>
+        <v>197</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -7190,11 +7216,13 @@
         <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Y49" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="Z49" t="s" s="2">
-        <v>311</v>
+        <v>200</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
@@ -7212,13 +7240,13 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>306</v>
+        <v>201</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>76</v>
@@ -7227,24 +7255,24 @@
         <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>312</v>
+        <v>146</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>313</v>
+        <v>202</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>314</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>315</v>
+        <v>204</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7258,7 +7286,7 @@
         <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>76</v>
@@ -7267,19 +7295,19 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>316</v>
+        <v>206</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>317</v>
+        <v>207</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>318</v>
+        <v>208</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>319</v>
+        <v>209</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7304,13 +7332,13 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7328,7 +7356,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>315</v>
+        <v>213</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7337,19 +7365,19 @@
         <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>320</v>
+        <v>214</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>321</v>
+        <v>202</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>322</v>
+        <v>76</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>76</v>
@@ -7357,10 +7385,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>323</v>
+        <v>216</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7368,10 +7396,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -7380,35 +7408,35 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>324</v>
+        <v>217</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>325</v>
+        <v>218</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>326</v>
+        <v>219</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>327</v>
+        <v>220</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>76</v>
@@ -7444,13 +7472,13 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>76</v>
@@ -7459,13 +7487,13 @@
         <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>321</v>
+        <v>225</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>76</v>
@@ -7473,10 +7501,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7484,10 +7512,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
@@ -7496,23 +7524,21 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>329</v>
+        <v>123</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>330</v>
+        <v>229</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>331</v>
+        <v>230</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7524,7 +7550,7 @@
         <v>76</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>76</v>
@@ -7560,28 +7586,28 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>328</v>
+        <v>233</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>334</v>
+        <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>335</v>
+        <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>336</v>
+        <v>235</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>337</v>
+        <v>236</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>338</v>
+        <v>237</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>76</v>
@@ -7589,10 +7615,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>339</v>
+        <v>239</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7603,7 +7629,7 @@
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>76</v>
@@ -7612,23 +7638,19 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>341</v>
+        <v>241</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7676,28 +7698,28 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>339</v>
+        <v>243</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>345</v>
+        <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>346</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>347</v>
+        <v>244</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>348</v>
+        <v>245</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>349</v>
+        <v>246</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>76</v>
@@ -7705,10 +7727,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>350</v>
+        <v>248</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7731,18 +7753,18 @@
         <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>351</v>
+        <v>250</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
       </c>
@@ -7790,7 +7812,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>350</v>
+        <v>253</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7805,13 +7827,13 @@
         <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>354</v>
+        <v>255</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>127</v>
+        <v>256</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>76</v>
@@ -7819,12 +7841,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>76</v>
       </c>
@@ -7833,7 +7857,7 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -7842,22 +7866,20 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>356</v>
+        <v>304</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>357</v>
+        <v>305</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>360</v>
+        <v>173</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>76</v>
@@ -7906,7 +7928,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>355</v>
+        <v>169</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -7915,30 +7937,30 @@
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>361</v>
+        <v>177</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>76</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>362</v>
+        <v>306</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>362</v>
+        <v>306</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7955,26 +7977,32 @@
         <v>76</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>123</v>
+        <v>307</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>124</v>
+        <v>308</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="R56" t="s" s="2">
         <v>76</v>
       </c>
@@ -8018,7 +8046,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>126</v>
+        <v>306</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8030,31 +8058,31 @@
         <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>127</v>
+        <v>314</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>76</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>363</v>
+        <v>317</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>363</v>
+        <v>317</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8070,21 +8098,23 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>131</v>
+        <v>318</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>132</v>
+        <v>319</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>76</v>
       </c>
@@ -8108,13 +8138,11 @@
         <v>76</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>76</v>
@@ -8132,7 +8160,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>137</v>
+        <v>317</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8144,62 +8172,62 @@
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AM57" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AN57" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>365</v>
+        <v>76</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>133</v>
+        <v>329</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>167</v>
+        <v>330</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>76</v>
@@ -8248,28 +8276,28 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>76</v>
+        <v>331</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>146</v>
+        <v>332</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>76</v>
+        <v>333</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>76</v>
@@ -8277,10 +8305,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8291,7 +8319,7 @@
         <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>76</v>
@@ -8303,17 +8331,19 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>211</v>
+        <v>123</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O59" t="s" s="2">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>76</v>
@@ -8338,13 +8368,13 @@
         <v>76</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>373</v>
+        <v>76</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>374</v>
+        <v>76</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>76</v>
@@ -8362,13 +8392,13 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>76</v>
@@ -8380,7 +8410,7 @@
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -8391,10 +8421,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8405,7 +8435,7 @@
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
@@ -8417,17 +8447,19 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O60" t="s" s="2">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>76</v>
@@ -8476,28 +8508,28 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>76</v>
+        <v>345</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>98</v>
+        <v>346</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>76</v>
@@ -8505,10 +8537,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8531,17 +8563,19 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O61" t="s" s="2">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>76</v>
@@ -8590,7 +8624,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8599,19 +8633,19 @@
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>76</v>
+        <v>356</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>98</v>
+        <v>357</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>76</v>
+        <v>360</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>76</v>
@@ -8619,10 +8653,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8642,20 +8676,20 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>340</v>
+        <v>249</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>76</v>
@@ -8704,7 +8738,7 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -8719,13 +8753,13 @@
         <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>393</v>
+        <v>313</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>76</v>
@@ -8733,10 +8767,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8759,17 +8793,19 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O63" t="s" s="2">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>76</v>
@@ -8818,7 +8854,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -8836,17 +8872,929 @@
         <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AM63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN63" t="s" s="2">
+      <c r="AM64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="P71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN63">
+  <autoFilter ref="A1:AN71">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8856,7 +9804,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI62">
+  <conditionalFormatting sqref="A2:AI70">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
